--- a/public/assets/result/Siti Sofia_5.xlsx
+++ b/public/assets/result/Siti Sofia_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -130,13 +130,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUPRIYATIN</t>
+    <t>SITI SOFIA</t>
   </si>
 </sst>
 </file>
@@ -889,19 +886,19 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J13" s="5">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K13" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13"/>
     </row>
@@ -1000,16 +997,16 @@
         <v>31</v>
       </c>
       <c r="I16" s="5">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J16" s="5">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K16" s="5">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L16" s="5">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1061,9 +1058,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="K22" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="N22" s="1"/>
     </row>
@@ -1079,10 +1074,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L25" s="4"/>
       <c r="N25" s="1"/>
